--- a/faker_news/news_for_llm.xlsx
+++ b/faker_news/news_for_llm.xlsx
@@ -32,7 +32,7 @@
     <t>股票代码</t>
   </si>
   <si>
-    <t>原文</t>
+    <t>content</t>
   </si>
   <si>
     <t>新闻发布时间</t>
@@ -19970,7 +19970,7 @@
   <dimension ref="A1:C990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
